--- a/score_pair.xlsx
+++ b/score_pair.xlsx
@@ -703,7 +703,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" altLang="zh-CN"/>
-              <a:t>Be Pair</a:t>
+              <a:t>Be</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t> Pair</a:t>
             </a:r>
             <a:endParaRPr lang="zh-CN" altLang="en-US"/>
           </a:p>
@@ -771,161 +775,365 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>score!$B$1:$B$24</c:f>
+              <c:f>score!$B$1:$B$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="58"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>14</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>16</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>17</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>18</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>19</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>20</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>21</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>22</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>23</c:v>
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>118</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>score!$C$1:$C$24</c:f>
+              <c:f>score!$C$1:$C$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="58"/>
                 <c:pt idx="0">
-                  <c:v>4206</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1581</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1369</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>677</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>633</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>414</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>341</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>211</c:v>
+                  <c:v>161</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>138</c:v>
+                  <c:v>188</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>119</c:v>
+                  <c:v>233</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>103</c:v>
+                  <c:v>259</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>84</c:v>
+                  <c:v>332</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>47</c:v>
+                  <c:v>363</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>23</c:v>
+                  <c:v>375</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>13</c:v>
+                  <c:v>413</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15</c:v>
+                  <c:v>390</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>458</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>453</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>435</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>437</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>456</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>448</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>417</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>427</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>399</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>362</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>326</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>319</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>259</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="46">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="47">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="54">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="55">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="19">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="56">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="22">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="57">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -934,7 +1142,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-19C7-4AA8-85CC-5A927CFB3839}"/>
+              <c16:uniqueId val="{00000000-6C7C-4C52-AEEB-B85871A55EF1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -946,11 +1154,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="529306248"/>
-        <c:axId val="529305920"/>
+        <c:axId val="519984376"/>
+        <c:axId val="519984704"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="529306248"/>
+        <c:axId val="519984376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1007,12 +1215,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="529305920"/>
+        <c:crossAx val="519984704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="529305920"/>
+        <c:axId val="519984704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1069,7 +1277,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="529306248"/>
+        <c:crossAx val="519984376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1686,22 +1894,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>110490</xdr:rowOff>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>80010</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>49530</xdr:rowOff>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{482DECA7-7FAD-4A78-86B6-497288ED9660}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AEBB0CE-34D0-4398-BFF4-A318042E08FC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2019,281 +2227,655 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="R41" sqref="R41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>0</v>
+        <v>3043</v>
       </c>
       <c r="B1">
         <v>0</v>
       </c>
       <c r="C1">
-        <v>4206</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>523</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>1581</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>3</v>
+        <v>198</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>1369</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>4</v>
+        <v>125</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C4">
-        <v>677</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>15</v>
+        <v>462</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C5">
-        <v>633</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C6">
-        <v>414</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C7">
-        <v>341</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C8">
-        <v>211</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="B9">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C9">
-        <v>138</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B10">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C10">
-        <v>119</v>
+        <v>233</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="B11">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C11">
-        <v>103</v>
+        <v>259</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="B12">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C12">
-        <v>84</v>
+        <v>332</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>68</v>
+        <v>9</v>
       </c>
       <c r="B13">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C13">
-        <v>47</v>
+        <v>363</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>124</v>
+        <v>33</v>
       </c>
       <c r="B14">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C14">
-        <v>23</v>
+        <v>375</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>185</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C15">
-        <v>13</v>
+        <v>413</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>490</v>
+        <v>3</v>
       </c>
       <c r="B16">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C16">
-        <v>15</v>
+        <v>390</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>600</v>
+        <v>64</v>
       </c>
       <c r="B17">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C17">
-        <v>10</v>
+        <v>458</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>721</v>
+        <v>27</v>
       </c>
       <c r="B18">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="C18">
-        <v>3</v>
+        <v>453</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>871</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C19">
-        <v>3</v>
+        <v>435</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>917</v>
+        <v>13</v>
       </c>
       <c r="B20">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C20">
-        <v>4</v>
+        <v>437</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>1706</v>
+        <v>4</v>
       </c>
       <c r="B21">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C21">
-        <v>2</v>
+        <v>456</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>2363</v>
+        <v>12</v>
       </c>
       <c r="B22">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>448</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>2571</v>
+        <v>15</v>
       </c>
       <c r="B23">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="C23">
-        <v>2</v>
+        <v>417</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>3683</v>
+        <v>8</v>
       </c>
       <c r="B24">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="C24">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>48</v>
+      </c>
+      <c r="C25">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>53</v>
+      </c>
+      <c r="B26">
+        <v>50</v>
+      </c>
+      <c r="C26">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>14</v>
+      </c>
+      <c r="B27">
+        <v>52</v>
+      </c>
+      <c r="C27">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>7</v>
+      </c>
+      <c r="B28">
+        <v>54</v>
+      </c>
+      <c r="C28">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>68</v>
+      </c>
+      <c r="B29">
+        <v>56</v>
+      </c>
+      <c r="C29">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>5</v>
+      </c>
+      <c r="B30">
+        <v>58</v>
+      </c>
+      <c r="C30">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>135</v>
+      </c>
+      <c r="B31">
+        <v>60</v>
+      </c>
+      <c r="C31">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>18</v>
+      </c>
+      <c r="B32">
+        <v>62</v>
+      </c>
+      <c r="C32">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>47</v>
+      </c>
+      <c r="B33">
+        <v>64</v>
+      </c>
+      <c r="C33">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
         <v>1</v>
       </c>
+      <c r="B34">
+        <v>66</v>
+      </c>
+      <c r="C34">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>89</v>
+      </c>
+      <c r="B35">
+        <v>68</v>
+      </c>
+      <c r="C35">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>300</v>
+      </c>
+      <c r="B36">
+        <v>70</v>
+      </c>
+      <c r="C36">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>202</v>
+      </c>
+      <c r="B37">
+        <v>72</v>
+      </c>
+      <c r="C37">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>6</v>
+      </c>
+      <c r="B38">
+        <v>74</v>
+      </c>
+      <c r="C38">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>24</v>
+      </c>
+      <c r="B39">
+        <v>76</v>
+      </c>
+      <c r="C39">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>31</v>
+      </c>
+      <c r="B40">
+        <v>78</v>
+      </c>
+      <c r="C40">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>230</v>
+      </c>
+      <c r="B41">
+        <v>80</v>
+      </c>
+      <c r="C41">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>1008</v>
+      </c>
+      <c r="B42">
+        <v>82</v>
+      </c>
+      <c r="C42">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>72</v>
+      </c>
+      <c r="B43">
+        <v>84</v>
+      </c>
+      <c r="C43">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>225</v>
+      </c>
+      <c r="B44">
+        <v>86</v>
+      </c>
+      <c r="C44">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>628</v>
+      </c>
+      <c r="B45">
+        <v>88</v>
+      </c>
+      <c r="C45">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>683</v>
+      </c>
+      <c r="B46">
+        <v>90</v>
+      </c>
+      <c r="C46">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>2</v>
+      </c>
+      <c r="B47">
+        <v>92</v>
+      </c>
+      <c r="C47">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>530</v>
+      </c>
+      <c r="B48">
+        <v>94</v>
+      </c>
+      <c r="C48">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>1306</v>
+      </c>
+      <c r="B49">
+        <v>96</v>
+      </c>
+      <c r="C49">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>4461</v>
+      </c>
+      <c r="B50">
+        <v>98</v>
+      </c>
+      <c r="C50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>1421</v>
+      </c>
+      <c r="B51">
+        <v>100</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>5168</v>
+      </c>
+      <c r="B52">
+        <v>102</v>
+      </c>
+      <c r="C52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>2293</v>
+      </c>
+      <c r="B53">
+        <v>104</v>
+      </c>
+      <c r="C53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>2529</v>
+      </c>
+      <c r="B54">
+        <v>106</v>
+      </c>
+      <c r="C54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>5343</v>
+      </c>
+      <c r="B55">
+        <v>108</v>
+      </c>
+      <c r="C55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>1002</v>
+      </c>
+      <c r="B56">
+        <v>112</v>
+      </c>
+      <c r="C56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>1841</v>
+      </c>
+      <c r="B57">
+        <v>114</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>6885</v>
+      </c>
+      <c r="B58">
+        <v>118</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="B1:C24">
-    <sortCondition ref="B1"/>
+  <sortState ref="A1:C10000">
+    <sortCondition ref="B1:B10000"/>
   </sortState>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
